--- a/LMGNS.xlsx
+++ b/LMGNS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\dogfc\documents\nixiesalary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\dogfc\desktop\nixiepay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AD178F-AA8D-4305-AFC3-95B0A79262ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAC320D-72E0-4B1C-A8DB-64B0E29968A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +270,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -616,13 +623,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -980,24 +985,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="42" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12:J16"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.46484375" defaultRowHeight="15.1" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="50.19921875" customWidth="1"/>
+    <col min="1" max="1" width="44.73046875" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" customWidth="1"/>
     <col min="3" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.53125" customWidth="1"/>
+    <col min="6" max="6" width="9.73046875" customWidth="1"/>
     <col min="7" max="7" width="7.06640625" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="8" max="8" width="6.796875" customWidth="1"/>
     <col min="9" max="9" width="8.1328125" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="10" max="10" width="7.53125" customWidth="1"/>
     <col min="11" max="11" width="6.796875" customWidth="1"/>
     <col min="12" max="12" width="16.06640625" customWidth="1"/>
     <col min="13" max="13" width="6.796875" customWidth="1"/>
@@ -1008,13 +1013,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -1056,16 +1061,16 @@
       <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2">
         <f>SUM(C:C)</f>
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C3" s="2">
+      <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
@@ -1081,7 +1086,7 @@
       <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3">
         <f>J3*($L$8)</f>
         <v>0</v>
       </c>
@@ -1089,11 +1094,9 @@
         <f>SUM($F$3:$F$40,$H$3:$H$40)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C4" s="3">
+      <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
@@ -1109,7 +1112,7 @@
       <c r="K4" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <f>J4*($L$8)</f>
         <v>0</v>
       </c>
@@ -1117,15 +1120,15 @@
         <f>SUM($J$21:$J$36,$L$21:$L$36)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C5" s="3">
+      <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
@@ -1141,7 +1144,7 @@
       <c r="K5" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5">
         <f>J5*($L$8)</f>
         <v>0</v>
       </c>
@@ -1149,15 +1152,15 @@
         <f>SUM(J12:J15)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5">
         <v>5.5</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C6" s="3">
+      <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
@@ -1167,7 +1170,7 @@
       <c r="K6" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6">
         <f>SUM(L3:L5)</f>
         <v>0</v>
       </c>
@@ -1175,15 +1178,15 @@
         <f t="shared" ref="M6" si="1">SUM(M3:M5)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C7" s="3">
+      <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
@@ -1199,7 +1202,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C8" s="3">
+      <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
@@ -1222,13 +1225,14 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C9" s="3">
+      <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G9" s="1"/>
       <c r="I9" t="s">
         <v>20</v>
       </c>
@@ -1238,13 +1242,15 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C10" s="3">
+      <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E10" s="1"/>
+      <c r="G10" s="3"/>
       <c r="I10" t="s">
         <v>21</v>
       </c>
@@ -1257,17 +1263,18 @@
       </c>
       <c r="L10">
         <f>SUM(H3:H40,L12:L13,L21:L36)</f>
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C11" s="3">
+      <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G11" s="1"/>
       <c r="I11" t="s">
         <v>15</v>
       </c>
@@ -1282,49 +1289,49 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C12" s="2">
+      <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12">
         <f>(O2 - 5 ) * O6</f>
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C13" s="2">
+      <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="2">
-        <v>0</v>
+      <c r="L13">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C14" s="2">
+      <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="2">
-        <v>16</v>
+      <c r="L14">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
@@ -1335,12 +1342,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="K15" s="2" t="s">
+      <c r="K15" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="2">
-        <v>40</v>
+      <c r="L15">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
@@ -1351,15 +1357,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16">
         <f>O2 * O5 + 5*O6</f>
         <v>390</v>
       </c>
     </row>
-    <row r="17" spans="3:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C17">
         <v>1</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C18">
         <v>1</v>
       </c>
@@ -1377,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C19">
         <v>1</v>
       </c>
@@ -1386,7 +1392,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A20" s="1"/>
       <c r="C20">
         <v>1</v>
       </c>
@@ -1407,7 +1414,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="3:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A21" s="1"/>
       <c r="C21">
         <v>1</v>
       </c>
@@ -1416,7 +1424,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A22" s="1"/>
       <c r="C22">
         <v>1</v>
       </c>
@@ -1424,8 +1433,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A23" s="1"/>
       <c r="C23">
         <v>1</v>
       </c>
@@ -1434,7 +1445,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A24" s="1"/>
       <c r="C24">
         <v>1</v>
       </c>
@@ -1443,7 +1455,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A25" s="1"/>
       <c r="C25">
         <v>1</v>
       </c>
@@ -1452,7 +1465,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A26" s="1"/>
       <c r="C26">
         <v>1</v>
       </c>
@@ -1461,7 +1475,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A27" s="1"/>
       <c r="C27">
         <v>1</v>
       </c>
@@ -1470,7 +1485,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A28" s="1"/>
       <c r="C28">
         <v>1</v>
       </c>
@@ -1479,7 +1495,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A29" s="1"/>
       <c r="C29">
         <v>1</v>
       </c>
@@ -1488,7 +1505,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A30" s="1"/>
       <c r="C30">
         <v>1</v>
       </c>
@@ -1497,7 +1515,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A31" s="1"/>
       <c r="C31">
         <v>1</v>
       </c>
@@ -1506,7 +1525,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
       <c r="C32">
         <v>1</v>
       </c>
@@ -1516,6 +1537,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A33" s="1"/>
       <c r="C33">
         <v>1</v>
       </c>
@@ -1525,6 +1547,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A34" s="1"/>
       <c r="C34">
         <v>1</v>
       </c>
@@ -1534,6 +1557,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A35" s="1"/>
       <c r="C35">
         <v>1</v>
       </c>
@@ -1543,6 +1567,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A36" s="1"/>
       <c r="C36">
         <v>1</v>
       </c>
@@ -1552,6 +1577,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A37" s="1"/>
       <c r="C37">
         <v>1</v>
       </c>
@@ -1561,6 +1587,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A38" s="1"/>
       <c r="C38">
         <v>1</v>
       </c>
@@ -1570,6 +1597,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A39" s="1"/>
       <c r="C39">
         <v>1</v>
       </c>
@@ -1579,6 +1607,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A40" s="1"/>
       <c r="C40">
         <v>1</v>
       </c>
@@ -1588,149 +1617,130 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="A41" s="1"/>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
+      <c r="A42" s="1"/>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="A43" s="1"/>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="A44" s="1"/>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2">
-        <v>1</v>
-      </c>
-      <c r="D45" s="2">
+      <c r="A45" s="1"/>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2">
-        <v>1</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="A46" s="1"/>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2">
-        <v>1</v>
-      </c>
-      <c r="D47" s="2">
+      <c r="A47" s="1"/>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2">
-        <v>1</v>
-      </c>
-      <c r="D48" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2">
-        <v>1</v>
-      </c>
-      <c r="D49" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2">
-        <v>1</v>
-      </c>
-      <c r="D50" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2">
-        <v>1</v>
-      </c>
-      <c r="D51" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2">
-        <v>1</v>
-      </c>
-      <c r="D53" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C54">
         <v>1</v>
       </c>
@@ -1739,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:4" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C55">
         <v>1</v>
       </c>
@@ -1748,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:4" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C56">
         <v>1</v>
       </c>
@@ -1757,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:4" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C57">
         <v>1</v>
       </c>
@@ -1766,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:4" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C58">
         <v>1</v>
       </c>
@@ -1775,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:4" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C59">
         <v>1</v>
       </c>
@@ -1784,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:4" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C60">
         <v>1</v>
       </c>
@@ -1793,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="61" spans="3:4" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C61">
         <v>1</v>
       </c>
@@ -1802,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="62" spans="3:4" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C62">
         <v>1</v>
       </c>
@@ -1811,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:4" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C63">
         <v>1</v>
       </c>
@@ -1820,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="64" spans="3:4" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C64">
         <v>1</v>
       </c>
@@ -1887,7 +1897,7 @@
       <c r="C71">
         <v>1</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1896,7 +1906,7 @@
       <c r="C72">
         <v>1</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72">
         <f t="shared" ref="D72" si="2">B72*(C72+$J$6*(1-C72))</f>
         <v>0</v>
       </c>
@@ -1922,22 +1932,22 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C70">
+  <conditionalFormatting sqref="I21:I23 A3:C70 I25 I27:I36 K22 E3:E11 G8:G9 E18:E40 G11">
     <cfRule type="expression" priority="4">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C70">
+  <conditionalFormatting sqref="I21:I23 A3:C70 I25 I27:I36 K22 E3:E11 G8:G9 E18:E40 G11">
     <cfRule type="expression" priority="5">
       <formula>ISODD(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E40 G3:G40 I12:I14 K12:K14 I21:I36 K21:K36">
+  <conditionalFormatting sqref="G3:G40 I12:I14 K12:K14 K21:K36">
     <cfRule type="expression" priority="6">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E40 G3:G40 I12:I14 K12:K14 I21:I36 K21:K36">
+  <conditionalFormatting sqref="G3:G40 I12:I14 K12:K14 K21:K36">
     <cfRule type="expression" priority="7">
       <formula>ISODD(ROW())</formula>
     </cfRule>
@@ -1973,5 +1983,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>